--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.43868566666667</v>
+        <v>21.750601</v>
       </c>
       <c r="H2">
-        <v>55.316057</v>
+        <v>65.251803</v>
       </c>
       <c r="I2">
-        <v>0.3183853266762842</v>
+        <v>0.3612485837751334</v>
       </c>
       <c r="J2">
-        <v>0.3483374670709626</v>
+        <v>0.3773020033645041</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.03467933333333333</v>
+        <v>0.1847186666666667</v>
       </c>
       <c r="N2">
-        <v>0.104038</v>
+        <v>0.554156</v>
       </c>
       <c r="O2">
-        <v>0.001079709358115028</v>
+        <v>0.003664790727240103</v>
       </c>
       <c r="P2">
-        <v>0.001081023297788346</v>
+        <v>0.00367452998950282</v>
       </c>
       <c r="Q2">
-        <v>0.639441326462889</v>
+        <v>4.017742015918667</v>
       </c>
       <c r="R2">
-        <v>5.754971938166</v>
+        <v>36.159678143268</v>
       </c>
       <c r="S2">
-        <v>0.0003437636166988943</v>
+        <v>0.001323900460047728</v>
       </c>
       <c r="T2">
-        <v>0.0003765609173962914</v>
+        <v>0.001386407526462364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.43868566666667</v>
+        <v>21.750601</v>
       </c>
       <c r="H3">
-        <v>55.316057</v>
+        <v>65.251803</v>
       </c>
       <c r="I3">
-        <v>0.3183853266762842</v>
+        <v>0.3612485837751334</v>
       </c>
       <c r="J3">
-        <v>0.3483374670709626</v>
+        <v>0.3773020033645041</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.271728</v>
       </c>
       <c r="O3">
-        <v>0.01319802978312644</v>
+        <v>0.008410297789740796</v>
       </c>
       <c r="P3">
-        <v>0.01321409097108535</v>
+        <v>0.008432648341785422</v>
       </c>
       <c r="Q3">
-        <v>7.816330948499556</v>
+        <v>9.220282769509332</v>
       </c>
       <c r="R3">
-        <v>70.346978536496</v>
+        <v>82.98254492558399</v>
       </c>
       <c r="S3">
-        <v>0.00420205902398404</v>
+        <v>0.003038208165670997</v>
       </c>
       <c r="T3">
-        <v>0.004602962978513148</v>
+        <v>0.003181655113024003</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.43868566666667</v>
+        <v>21.750601</v>
       </c>
       <c r="H4">
-        <v>55.316057</v>
+        <v>65.251803</v>
       </c>
       <c r="I4">
-        <v>0.3183853266762842</v>
+        <v>0.3612485837751334</v>
       </c>
       <c r="J4">
-        <v>0.3483374670709626</v>
+        <v>0.3773020033645041</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.98086433333333</v>
+        <v>23.33139033333333</v>
       </c>
       <c r="N4">
-        <v>50.942593</v>
+        <v>69.99417099999999</v>
       </c>
       <c r="O4">
-        <v>0.5286836962335409</v>
+        <v>0.4628912956670289</v>
       </c>
       <c r="P4">
-        <v>0.5293270716733264</v>
+        <v>0.4641214395041984</v>
       </c>
       <c r="Q4">
-        <v>313.1048197906446</v>
+        <v>507.4717619155903</v>
       </c>
       <c r="R4">
-        <v>2817.943378115801</v>
+        <v>4567.245857240312</v>
       </c>
       <c r="S4">
-        <v>0.1683251313337413</v>
+        <v>0.1672188250015507</v>
       </c>
       <c r="T4">
-        <v>0.1843844513987764</v>
+        <v>0.1751139489293515</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.43868566666667</v>
+        <v>21.750601</v>
       </c>
       <c r="H5">
-        <v>55.316057</v>
+        <v>65.251803</v>
       </c>
       <c r="I5">
-        <v>0.3183853266762842</v>
+        <v>0.3612485837751334</v>
       </c>
       <c r="J5">
-        <v>0.3483374670709626</v>
+        <v>0.3773020033645041</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1171185</v>
+        <v>0.400781</v>
       </c>
       <c r="N5">
-        <v>0.234237</v>
+        <v>0.801562</v>
       </c>
       <c r="O5">
-        <v>0.00364637749067826</v>
+        <v>0.007951435114592365</v>
       </c>
       <c r="P5">
-        <v>0.002433876604741046</v>
+        <v>0.005315044152631857</v>
       </c>
       <c r="Q5">
-        <v>2.159511207251501</v>
+        <v>8.717227619380999</v>
       </c>
       <c r="R5">
-        <v>12.957067243509</v>
+        <v>52.303365716286</v>
       </c>
       <c r="S5">
-        <v>0.001160953088554647</v>
+        <v>0.002872444674126358</v>
       </c>
       <c r="T5">
-        <v>0.0008478104116587702</v>
+        <v>0.002005376806758793</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.43868566666667</v>
+        <v>21.750601</v>
       </c>
       <c r="H6">
-        <v>55.316057</v>
+        <v>65.251803</v>
       </c>
       <c r="I6">
-        <v>0.3183853266762842</v>
+        <v>0.3612485837751334</v>
       </c>
       <c r="J6">
-        <v>0.3483374670709626</v>
+        <v>0.3773020033645041</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.562566</v>
+        <v>26.06280633333334</v>
       </c>
       <c r="N6">
-        <v>43.687698</v>
+        <v>78.18841900000001</v>
       </c>
       <c r="O6">
-        <v>0.4533921871345394</v>
+        <v>0.517082180701398</v>
       </c>
       <c r="P6">
-        <v>0.4539439374530589</v>
+        <v>0.5184563380118814</v>
       </c>
       <c r="Q6">
-        <v>268.5145769740874</v>
+        <v>566.8817014966064</v>
       </c>
       <c r="R6">
-        <v>2416.631192766786</v>
+        <v>5101.935313469457</v>
       </c>
       <c r="S6">
-        <v>0.1443534196133053</v>
+        <v>0.1867952054737377</v>
       </c>
       <c r="T6">
-        <v>0.158125681364618</v>
+        <v>0.1956146149889073</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>50.535183</v>
       </c>
       <c r="I7">
-        <v>0.2908678170626081</v>
+        <v>0.2797740820980411</v>
       </c>
       <c r="J7">
-        <v>0.3182312442151755</v>
+        <v>0.2922068802649305</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.03467933333333333</v>
+        <v>0.1847186666666667</v>
       </c>
       <c r="N7">
-        <v>0.104038</v>
+        <v>0.554156</v>
       </c>
       <c r="O7">
-        <v>0.001079709358115028</v>
+        <v>0.003664790727240103</v>
       </c>
       <c r="P7">
-        <v>0.001081023297788346</v>
+        <v>0.00367452998950282</v>
       </c>
       <c r="Q7">
-        <v>0.5841754854393334</v>
+        <v>3.111597207838667</v>
       </c>
       <c r="R7">
-        <v>5.257579368954</v>
+        <v>28.004374870548</v>
       </c>
       <c r="S7">
-        <v>0.0003140527040569881</v>
+        <v>0.001025313461795012</v>
       </c>
       <c r="T7">
-        <v>0.0003440153890807776</v>
+        <v>0.001073722944672547</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>50.535183</v>
       </c>
       <c r="I8">
-        <v>0.2908678170626081</v>
+        <v>0.2797740820980411</v>
       </c>
       <c r="J8">
-        <v>0.3182312442151755</v>
+        <v>0.2922068802649305</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.271728</v>
       </c>
       <c r="O8">
-        <v>0.01319802978312644</v>
+        <v>0.008410297789740796</v>
       </c>
       <c r="P8">
-        <v>0.01321409097108535</v>
+        <v>0.008432648341785422</v>
       </c>
       <c r="Q8">
         <v>7.140778578469333</v>
@@ -948,10 +948,10 @@
         <v>64.26700720622401</v>
       </c>
       <c r="S8">
-        <v>0.003838882112545275</v>
+        <v>0.002352983344295915</v>
       </c>
       <c r="T8">
-        <v>0.004205136610901009</v>
+        <v>0.002464077864324357</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>50.535183</v>
       </c>
       <c r="I9">
-        <v>0.2908678170626081</v>
+        <v>0.2797740820980411</v>
       </c>
       <c r="J9">
-        <v>0.3182312442151755</v>
+        <v>0.2922068802649305</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.98086433333333</v>
+        <v>23.33139033333333</v>
       </c>
       <c r="N9">
-        <v>50.942593</v>
+        <v>69.99417099999999</v>
       </c>
       <c r="O9">
-        <v>0.5286836962335409</v>
+        <v>0.4628912956670289</v>
       </c>
       <c r="P9">
-        <v>0.5293270716733264</v>
+        <v>0.4641214395041984</v>
       </c>
       <c r="Q9">
-        <v>286.0436955277244</v>
+        <v>393.0186933798103</v>
       </c>
       <c r="R9">
-        <v>2574.393259749519</v>
+        <v>3537.168240418293</v>
       </c>
       <c r="S9">
-        <v>0.1537770726400411</v>
+        <v>0.1295049873564159</v>
       </c>
       <c r="T9">
-        <v>0.168448412615378</v>
+        <v>0.1356194779015905</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>50.535183</v>
       </c>
       <c r="I10">
-        <v>0.2908678170626081</v>
+        <v>0.2797740820980411</v>
       </c>
       <c r="J10">
-        <v>0.3182312442151755</v>
+        <v>0.2922068802649305</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1171185</v>
+        <v>0.400781</v>
       </c>
       <c r="N10">
-        <v>0.234237</v>
+        <v>0.801562</v>
       </c>
       <c r="O10">
-        <v>0.00364637749067826</v>
+        <v>0.007951435114592365</v>
       </c>
       <c r="P10">
-        <v>0.002433876604741046</v>
+        <v>0.005315044152631857</v>
       </c>
       <c r="Q10">
-        <v>1.9728682767285</v>
+        <v>6.751180392641</v>
       </c>
       <c r="R10">
-        <v>11.837209660371</v>
+        <v>40.507082355846</v>
       </c>
       <c r="S10">
-        <v>0.001060613860899816</v>
+        <v>0.002224605460547211</v>
       </c>
       <c r="T10">
-        <v>0.0007745355801929499</v>
+        <v>0.001553092470310916</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>50.535183</v>
       </c>
       <c r="I11">
-        <v>0.2908678170626081</v>
+        <v>0.2797740820980411</v>
       </c>
       <c r="J11">
-        <v>0.3182312442151755</v>
+        <v>0.2922068802649305</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.562566</v>
+        <v>26.06280633333334</v>
       </c>
       <c r="N11">
-        <v>43.687698</v>
+        <v>78.18841900000001</v>
       </c>
       <c r="O11">
-        <v>0.4533921871345394</v>
+        <v>0.517082180701398</v>
       </c>
       <c r="P11">
-        <v>0.4539439374530589</v>
+        <v>0.5184563380118814</v>
       </c>
       <c r="Q11">
-        <v>245.3073125865261</v>
+        <v>439.0295625161864</v>
       </c>
       <c r="R11">
-        <v>2207.765813278734</v>
+        <v>3951.266062645678</v>
       </c>
       <c r="S11">
-        <v>0.131877195745065</v>
+        <v>0.144666192474987</v>
       </c>
       <c r="T11">
-        <v>0.1444591440196228</v>
+        <v>0.1514965090840321</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.767255333333334</v>
+        <v>8.938416999999999</v>
       </c>
       <c r="H12">
-        <v>14.301766</v>
+        <v>26.815251</v>
       </c>
       <c r="I12">
-        <v>0.082317371969549</v>
+        <v>0.1484552303838214</v>
       </c>
       <c r="J12">
-        <v>0.09006138928307222</v>
+        <v>0.1550523887136425</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.03467933333333333</v>
+        <v>0.1847186666666667</v>
       </c>
       <c r="N12">
-        <v>0.104038</v>
+        <v>0.554156</v>
       </c>
       <c r="O12">
-        <v>0.001079709358115028</v>
+        <v>0.003664790727240103</v>
       </c>
       <c r="P12">
-        <v>0.001081023297788346</v>
+        <v>0.00367452998950282</v>
       </c>
       <c r="Q12">
-        <v>0.1653252367897778</v>
+        <v>1.651092470350667</v>
       </c>
       <c r="R12">
-        <v>1.487927131108</v>
+        <v>14.859832233156</v>
       </c>
       <c r="S12">
-        <v>8.887883685095776E-05</v>
+        <v>0.0005440573517209218</v>
       </c>
       <c r="T12">
-        <v>9.735846004618676E-05</v>
+        <v>0.0005697446522723278</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.767255333333334</v>
+        <v>8.938416999999999</v>
       </c>
       <c r="H13">
-        <v>14.301766</v>
+        <v>26.815251</v>
       </c>
       <c r="I13">
-        <v>0.082317371969549</v>
+        <v>0.1484552303838214</v>
       </c>
       <c r="J13">
-        <v>0.09006138928307222</v>
+        <v>0.1550523887136425</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.271728</v>
       </c>
       <c r="O13">
-        <v>0.01319802978312644</v>
+        <v>0.008410297789740796</v>
       </c>
       <c r="P13">
-        <v>0.01321409097108535</v>
+        <v>0.008432648341785422</v>
       </c>
       <c r="Q13">
-        <v>2.020884030183111</v>
+        <v>3.789078391525333</v>
       </c>
       <c r="R13">
-        <v>18.187956271648</v>
+        <v>34.101705523728</v>
       </c>
       <c r="S13">
-        <v>0.001086427126922805</v>
+        <v>0.001248552695972514</v>
       </c>
       <c r="T13">
-        <v>0.001190079390968848</v>
+        <v>0.001307502268575966</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.767255333333334</v>
+        <v>8.938416999999999</v>
       </c>
       <c r="H14">
-        <v>14.301766</v>
+        <v>26.815251</v>
       </c>
       <c r="I14">
-        <v>0.082317371969549</v>
+        <v>0.1484552303838214</v>
       </c>
       <c r="J14">
-        <v>0.09006138928307222</v>
+        <v>0.1550523887136425</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.98086433333333</v>
+        <v>23.33139033333333</v>
       </c>
       <c r="N14">
-        <v>50.942593</v>
+        <v>69.99417099999999</v>
       </c>
       <c r="O14">
-        <v>0.5286836962335409</v>
+        <v>0.4628912956670289</v>
       </c>
       <c r="P14">
-        <v>0.5293270716733264</v>
+        <v>0.4641214395041984</v>
       </c>
       <c r="Q14">
-        <v>80.95211605769312</v>
+        <v>208.5456959891023</v>
       </c>
       <c r="R14">
-        <v>728.5690445192381</v>
+        <v>1876.911263901921</v>
       </c>
       <c r="S14">
-        <v>0.04351985247709244</v>
+        <v>0.06871863394091438</v>
       </c>
       <c r="T14">
-        <v>0.04767193146004012</v>
+        <v>0.07196313784834026</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.767255333333334</v>
+        <v>8.938416999999999</v>
       </c>
       <c r="H15">
-        <v>14.301766</v>
+        <v>26.815251</v>
       </c>
       <c r="I15">
-        <v>0.082317371969549</v>
+        <v>0.1484552303838214</v>
       </c>
       <c r="J15">
-        <v>0.09006138928307222</v>
+        <v>0.1550523887136425</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1171185</v>
+        <v>0.400781</v>
       </c>
       <c r="N15">
-        <v>0.234237</v>
+        <v>0.801562</v>
       </c>
       <c r="O15">
-        <v>0.00364637749067826</v>
+        <v>0.007951435114592365</v>
       </c>
       <c r="P15">
-        <v>0.002433876604741046</v>
+        <v>0.005315044152631857</v>
       </c>
       <c r="Q15">
-        <v>0.5583337937570001</v>
+        <v>3.582347703677</v>
       </c>
       <c r="R15">
-        <v>3.350002762542001</v>
+        <v>21.494086222062</v>
       </c>
       <c r="S15">
-        <v>0.0003001602122415531</v>
+        <v>0.001180432131818817</v>
       </c>
       <c r="T15">
-        <v>0.0002191983083665454</v>
+        <v>0.0008241102919840472</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.767255333333334</v>
+        <v>8.938416999999999</v>
       </c>
       <c r="H16">
-        <v>14.301766</v>
+        <v>26.815251</v>
       </c>
       <c r="I16">
-        <v>0.082317371969549</v>
+        <v>0.1484552303838214</v>
       </c>
       <c r="J16">
-        <v>0.09006138928307222</v>
+        <v>0.1550523887136425</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.562566</v>
+        <v>26.06280633333334</v>
       </c>
       <c r="N16">
-        <v>43.687698</v>
+        <v>78.18841900000001</v>
       </c>
       <c r="O16">
-        <v>0.4533921871345394</v>
+        <v>0.517082180701398</v>
       </c>
       <c r="P16">
-        <v>0.4539439374530589</v>
+        <v>0.5184563380118814</v>
       </c>
       <c r="Q16">
-        <v>69.42347043051869</v>
+        <v>232.9602311975744</v>
       </c>
       <c r="R16">
-        <v>624.8112338746681</v>
+        <v>2096.642080778169</v>
       </c>
       <c r="S16">
-        <v>0.03732205331644124</v>
+        <v>0.07676355426339482</v>
       </c>
       <c r="T16">
-        <v>0.04088282166365053</v>
+        <v>0.08038789365246984</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.9391485</v>
+        <v>7.6853705</v>
       </c>
       <c r="H17">
-        <v>29.878297</v>
+        <v>15.370741</v>
       </c>
       <c r="I17">
-        <v>0.2579579565172923</v>
+        <v>0.1276437928732263</v>
       </c>
       <c r="J17">
-        <v>0.1881502562153687</v>
+        <v>0.08887741190073968</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.03467933333333333</v>
+        <v>0.1847186666666667</v>
       </c>
       <c r="N17">
-        <v>0.104038</v>
+        <v>0.554156</v>
       </c>
       <c r="O17">
-        <v>0.001079709358115028</v>
+        <v>0.003664790727240103</v>
       </c>
       <c r="P17">
-        <v>0.001081023297788346</v>
+        <v>0.00367452998950282</v>
       </c>
       <c r="Q17">
-        <v>0.5180797105476667</v>
+        <v>1.419631391599333</v>
       </c>
       <c r="R17">
-        <v>3.108478263286</v>
+        <v>8.517788349596</v>
       </c>
       <c r="S17">
-        <v>0.0002785196196519499</v>
+        <v>0.0004677877885115561</v>
       </c>
       <c r="T17">
-        <v>0.0002033948104536602</v>
+        <v>0.0003265827154186627</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.9391485</v>
+        <v>7.6853705</v>
       </c>
       <c r="H18">
-        <v>29.878297</v>
+        <v>15.370741</v>
       </c>
       <c r="I18">
-        <v>0.2579579565172923</v>
+        <v>0.1276437928732263</v>
       </c>
       <c r="J18">
-        <v>0.1881502562153687</v>
+        <v>0.08887741190073968</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.271728</v>
       </c>
       <c r="O18">
-        <v>0.01319802978312644</v>
+        <v>0.008410297789740796</v>
       </c>
       <c r="P18">
-        <v>0.01321409097108535</v>
+        <v>0.008432648341785422</v>
       </c>
       <c r="Q18">
-        <v>6.332844481202666</v>
+        <v>3.257900285074667</v>
       </c>
       <c r="R18">
-        <v>37.997066887216</v>
+        <v>19.547401710448</v>
       </c>
       <c r="S18">
-        <v>0.003404536792909659</v>
+        <v>0.001073522309075827</v>
       </c>
       <c r="T18">
-        <v>0.002486234601862899</v>
+        <v>0.0007494719600869524</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.9391485</v>
+        <v>7.6853705</v>
       </c>
       <c r="H19">
-        <v>29.878297</v>
+        <v>15.370741</v>
       </c>
       <c r="I19">
-        <v>0.2579579565172923</v>
+        <v>0.1276437928732263</v>
       </c>
       <c r="J19">
-        <v>0.1881502562153687</v>
+        <v>0.08887741190073968</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.98086433333333</v>
+        <v>23.33139033333333</v>
       </c>
       <c r="N19">
-        <v>50.942593</v>
+        <v>69.99417099999999</v>
       </c>
       <c r="O19">
-        <v>0.5286836962335409</v>
+        <v>0.4628912956670289</v>
       </c>
       <c r="P19">
-        <v>0.5293270716733264</v>
+        <v>0.4641214395041984</v>
       </c>
       <c r="Q19">
-        <v>253.6796539340202</v>
+        <v>179.3103789917852</v>
       </c>
       <c r="R19">
-        <v>1522.077923604121</v>
+        <v>1075.862273950711</v>
       </c>
       <c r="S19">
-        <v>0.1363781659244131</v>
+        <v>0.05908520066694161</v>
       </c>
       <c r="T19">
-        <v>0.09959302415706718</v>
+        <v>0.04124991235077887</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.9391485</v>
+        <v>7.6853705</v>
       </c>
       <c r="H20">
-        <v>29.878297</v>
+        <v>15.370741</v>
       </c>
       <c r="I20">
-        <v>0.2579579565172923</v>
+        <v>0.1276437928732263</v>
       </c>
       <c r="J20">
-        <v>0.1881502562153687</v>
+        <v>0.08887741190073968</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1171185</v>
+        <v>0.400781</v>
       </c>
       <c r="N20">
-        <v>0.234237</v>
+        <v>0.801562</v>
       </c>
       <c r="O20">
-        <v>0.00364637749067826</v>
+        <v>0.007951435114592365</v>
       </c>
       <c r="P20">
-        <v>0.002433876604741046</v>
+        <v>0.005315044152631857</v>
       </c>
       <c r="Q20">
-        <v>1.74965066359725</v>
+        <v>3.0801504743605</v>
       </c>
       <c r="R20">
-        <v>6.998602654389001</v>
+        <v>12.320601897442</v>
       </c>
       <c r="S20">
-        <v>0.0009406120861860159</v>
+        <v>0.001014951336811926</v>
       </c>
       <c r="T20">
-        <v>0.0004579345067786194</v>
+        <v>0.0004723873684240795</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.9391485</v>
+        <v>7.6853705</v>
       </c>
       <c r="H21">
-        <v>29.878297</v>
+        <v>15.370741</v>
       </c>
       <c r="I21">
-        <v>0.2579579565172923</v>
+        <v>0.1276437928732263</v>
       </c>
       <c r="J21">
-        <v>0.1881502562153687</v>
+        <v>0.08887741190073968</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.562566</v>
+        <v>26.06280633333334</v>
       </c>
       <c r="N21">
-        <v>43.687698</v>
+        <v>78.18841900000001</v>
       </c>
       <c r="O21">
-        <v>0.4533921871345394</v>
+        <v>0.517082180701398</v>
       </c>
       <c r="P21">
-        <v>0.4539439374530589</v>
+        <v>0.5184563380118814</v>
       </c>
       <c r="Q21">
-        <v>217.552336015051</v>
+        <v>200.3023229414132</v>
       </c>
       <c r="R21">
-        <v>1305.314016090306</v>
+        <v>1201.813937648479</v>
       </c>
       <c r="S21">
-        <v>0.1169561220941315</v>
+        <v>0.06600233077188543</v>
       </c>
       <c r="T21">
-        <v>0.08540966813920634</v>
+        <v>0.04607905750603111</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.922963333333333</v>
+        <v>4.990062666666667</v>
       </c>
       <c r="H22">
-        <v>8.768889999999999</v>
+        <v>14.970188</v>
       </c>
       <c r="I22">
-        <v>0.05047152777426636</v>
+        <v>0.08287831086977776</v>
       </c>
       <c r="J22">
-        <v>0.05521964321542102</v>
+        <v>0.08656131575618316</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.03467933333333333</v>
+        <v>0.1847186666666667</v>
       </c>
       <c r="N22">
-        <v>0.104038</v>
+        <v>0.554156</v>
       </c>
       <c r="O22">
-        <v>0.001079709358115028</v>
+        <v>0.003664790727240103</v>
       </c>
       <c r="P22">
-        <v>0.001081023297788346</v>
+        <v>0.00367452998950282</v>
       </c>
       <c r="Q22">
-        <v>0.1013664197577778</v>
+        <v>0.9217577223697778</v>
       </c>
       <c r="R22">
-        <v>0.91229777782</v>
+        <v>8.295819501327999</v>
       </c>
       <c r="S22">
-        <v>5.449458085623795E-05</v>
+        <v>0.0003037316651648841</v>
       </c>
       <c r="T22">
-        <v>5.969372081143031E-05</v>
+        <v>0.000318072150676918</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.922963333333333</v>
+        <v>4.990062666666667</v>
       </c>
       <c r="H23">
-        <v>8.768889999999999</v>
+        <v>14.970188</v>
       </c>
       <c r="I23">
-        <v>0.05047152777426636</v>
+        <v>0.08287831086977776</v>
       </c>
       <c r="J23">
-        <v>0.05521964321542102</v>
+        <v>0.08656131575618316</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.271728</v>
       </c>
       <c r="O23">
-        <v>0.01319802978312644</v>
+        <v>0.008410297789740796</v>
       </c>
       <c r="P23">
-        <v>0.01321409097108535</v>
+        <v>0.008432648341785422</v>
       </c>
       <c r="Q23">
-        <v>1.239071437991111</v>
+        <v>2.115334138318222</v>
       </c>
       <c r="R23">
-        <v>11.15164294192</v>
+        <v>19.038007244864</v>
       </c>
       <c r="S23">
-        <v>0.0006661247267646607</v>
+        <v>0.0006970312747255425</v>
       </c>
       <c r="T23">
-        <v>0.0007296773888394495</v>
+        <v>0.0007299411357741423</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.922963333333333</v>
+        <v>4.990062666666667</v>
       </c>
       <c r="H24">
-        <v>8.768889999999999</v>
+        <v>14.970188</v>
       </c>
       <c r="I24">
-        <v>0.05047152777426636</v>
+        <v>0.08287831086977776</v>
       </c>
       <c r="J24">
-        <v>0.05521964321542102</v>
+        <v>0.08656131575618316</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>16.98086433333333</v>
+        <v>23.33139033333333</v>
       </c>
       <c r="N24">
-        <v>50.942593</v>
+        <v>69.99417099999999</v>
       </c>
       <c r="O24">
-        <v>0.5286836962335409</v>
+        <v>0.4628912956670289</v>
       </c>
       <c r="P24">
-        <v>0.5293270716733264</v>
+        <v>0.4641214395041984</v>
       </c>
       <c r="Q24">
-        <v>49.63444381464111</v>
+        <v>116.4250998637942</v>
       </c>
       <c r="R24">
-        <v>446.70999433177</v>
+        <v>1047.825898774148</v>
       </c>
       <c r="S24">
-        <v>0.02668347385825296</v>
+        <v>0.03836364870120623</v>
       </c>
       <c r="T24">
-        <v>0.02922925204206467</v>
+        <v>0.04017496247413718</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.922963333333333</v>
+        <v>4.990062666666667</v>
       </c>
       <c r="H25">
-        <v>8.768889999999999</v>
+        <v>14.970188</v>
       </c>
       <c r="I25">
-        <v>0.05047152777426636</v>
+        <v>0.08287831086977776</v>
       </c>
       <c r="J25">
-        <v>0.05521964321542102</v>
+        <v>0.08656131575618316</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1171185</v>
+        <v>0.400781</v>
       </c>
       <c r="N25">
-        <v>0.234237</v>
+        <v>0.801562</v>
       </c>
       <c r="O25">
-        <v>0.00364637749067826</v>
+        <v>0.007951435114592365</v>
       </c>
       <c r="P25">
-        <v>0.002433876604741046</v>
+        <v>0.005315044152631857</v>
       </c>
       <c r="Q25">
-        <v>0.342333081155</v>
+        <v>1.999922305609333</v>
       </c>
       <c r="R25">
-        <v>2.05399848693</v>
+        <v>11.999533833656</v>
       </c>
       <c r="S25">
-        <v>0.0001840382427962275</v>
+        <v>0.000659001511288053</v>
       </c>
       <c r="T25">
-        <v>0.0001343977977441608</v>
+        <v>0.0004600772151540212</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.922963333333333</v>
+        <v>4.990062666666667</v>
       </c>
       <c r="H26">
-        <v>8.768889999999999</v>
+        <v>14.970188</v>
       </c>
       <c r="I26">
-        <v>0.05047152777426636</v>
+        <v>0.08287831086977776</v>
       </c>
       <c r="J26">
-        <v>0.05521964321542102</v>
+        <v>0.08656131575618316</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.562566</v>
+        <v>26.06280633333334</v>
       </c>
       <c r="N26">
-        <v>43.687698</v>
+        <v>78.18841900000001</v>
       </c>
       <c r="O26">
-        <v>0.4533921871345394</v>
+        <v>0.517082180701398</v>
       </c>
       <c r="P26">
-        <v>0.4539439374530589</v>
+        <v>0.5184563380118814</v>
       </c>
       <c r="Q26">
-        <v>42.56584645724667</v>
+        <v>130.0550368725303</v>
       </c>
       <c r="R26">
-        <v>383.09261811522</v>
+        <v>1170.495331852772</v>
       </c>
       <c r="S26">
-        <v>0.02288339636559628</v>
+        <v>0.04285489771739306</v>
       </c>
       <c r="T26">
-        <v>0.02506662226596131</v>
+        <v>0.04487826278044089</v>
       </c>
     </row>
   </sheetData>
